--- a/Classifier1/result_reduced.xlsx
+++ b/Classifier1/result_reduced.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$1558</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$1558</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
